--- a/HT-6/Optica BAC-02-Portafolio de servicios.xlsx
+++ b/HT-6/Optica BAC-02-Portafolio de servicios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA94D911-2876-F44D-AF6C-4FFBD9DDFF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8A855A-B2E0-429B-9B7D-EC9C622C04AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="500" windowWidth="19420" windowHeight="11060" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-02" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Nombre</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>Cliente</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>Venta de monturas online</t>
+  </si>
+  <si>
+    <t>El cliente ordena una o varias monturas a través del portal web de Óptica Vision</t>
+  </si>
+  <si>
+    <t>Cliente Online</t>
   </si>
 </sst>
 </file>
@@ -147,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,20 +182,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -195,12 +198,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -226,7 +223,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -524,36 +521,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -570,7 +567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -587,7 +584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -604,7 +601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -621,7 +618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -638,26 +635,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+    <row r="10" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
